--- a/data/analysis/missing_web_soc_museums/missing_web_soc_museum_counts.xlsx
+++ b/data/analysis/missing_web_soc_museums/missing_web_soc_museum_counts.xlsx
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1300</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1211</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1838</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4331,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="E201">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="E205">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="E207">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="E215">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4603,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="E217">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="E225">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="E237">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="E241">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="E595">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -11046,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="E596">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="E619">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -11454,7 +11454,7 @@
         <v>1</v>
       </c>
       <c r="E620">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="E631">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -11658,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="E632">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="E633">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="E634">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="E637">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -11760,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="E638">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="E679">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="E680">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="E683">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -12542,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="E684">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="E710">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -13001,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="E711">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="E751">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -13698,7 +13698,7 @@
         <v>1</v>
       </c>
       <c r="E752">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="753" spans="1:5">
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="E774">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -14089,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="E775">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="E779">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -14174,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="E780">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -14276,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="E786">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="787" spans="1:5">
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="E787">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="788" spans="1:5">
@@ -14548,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="E802">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -14565,7 +14565,7 @@
         <v>1</v>
       </c>
       <c r="E803">
-        <v>1357</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -14582,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="E804">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -14599,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="E805">
-        <v>1190</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="806" spans="1:5">
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="E859">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="860" spans="1:5">
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="E860">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="861" spans="1:5">
@@ -15551,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="E861">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="862" spans="1:5">
@@ -15568,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="E862">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="863" spans="1:5">
@@ -15619,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="E865">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="866" spans="1:5">
@@ -15636,7 +15636,7 @@
         <v>1</v>
       </c>
       <c r="E866">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="867" spans="1:5">
@@ -15653,7 +15653,7 @@
         <v>0</v>
       </c>
       <c r="E867">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="868" spans="1:5">
@@ -15670,7 +15670,7 @@
         <v>1</v>
       </c>
       <c r="E868">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="E869">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="870" spans="1:5">
@@ -15704,7 +15704,7 @@
         <v>1</v>
       </c>
       <c r="E870">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="871" spans="1:5">
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="E873">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -15772,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="E874">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="875" spans="1:5">
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="E877">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="878" spans="1:5">
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="E878">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="879" spans="1:5">
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="E879">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -15874,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="E880">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="881" spans="1:5">
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="E881">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -15908,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="E882">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="883" spans="1:5">
